--- a/month_result.xlsx
+++ b/month_result.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,7 +470,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>50522</t>
+          <t>39358</t>
         </is>
       </c>
     </row>
@@ -574,36 +574,36 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2021-12-03</t>
+          <t>2022-02-24</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>401102829</t>
+          <t>403084264</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Розовый 190 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Сиде Серый 180 см х 10 шт.</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" t="n">
-        <v>5184</v>
+        <v>9120</v>
       </c>
       <c r="F3" t="n">
-        <v>518</v>
+        <v>912</v>
       </c>
       <c r="G3" t="n">
-        <v>596</v>
+        <v>1048</v>
       </c>
       <c r="H3" t="n">
-        <v>207</v>
+        <v>364</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>3863</v>
+        <v>6796</v>
       </c>
       <c r="J3" t="n">
         <v>10</v>
@@ -612,65 +612,65 @@
         <v>80</v>
       </c>
       <c r="L3" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Лайн</t>
+          <t>Сиде</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>10.7</v>
+        <v>24</v>
       </c>
       <c r="O3" t="n">
-        <v>1507.92</v>
+        <v>4004.64</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>1781.52</v>
+        <v>4350.240000000001</v>
       </c>
       <c r="Q3" t="n">
-        <v>2081.48</v>
+        <v>2445.759999999999</v>
       </c>
       <c r="R3" t="n">
-        <v>901</v>
+        <v>1179</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>2962</v>
+        <v>5617</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2021-12-25</t>
+          <t>2022-02-02</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>401531530</t>
+          <t>403084375</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Персиковый 160 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Бали голубой 170 см х 10 шт.</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
-        <v>4380</v>
+        <v>5400</v>
       </c>
       <c r="F4" t="n">
-        <v>438</v>
+        <v>540</v>
       </c>
       <c r="G4" t="n">
-        <v>503</v>
+        <v>621</v>
       </c>
       <c r="H4" t="n">
-        <v>175</v>
+        <v>216</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3264</v>
+        <v>4023</v>
       </c>
       <c r="J4" t="n">
         <v>10</v>
@@ -679,65 +679,65 @@
         <v>80</v>
       </c>
       <c r="L4" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Бали</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O4" t="n">
-        <v>1446.12</v>
+        <v>2101.2</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1676.52</v>
+        <v>2305.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.48</v>
+        <v>1717.8</v>
       </c>
       <c r="R4" t="n">
-        <v>704</v>
+        <v>789</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2560</v>
+        <v>3234</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2021-12-04</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>401526724</t>
+          <t>403084504</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 170 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Бали Синий 140 см х 10 шт.</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="n">
-        <v>4500</v>
+        <v>3840</v>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>384</v>
       </c>
       <c r="G5" t="n">
-        <v>517</v>
+        <v>441</v>
       </c>
       <c r="H5" t="n">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>3353</v>
+        <v>2862</v>
       </c>
       <c r="J5" t="n">
         <v>10</v>
@@ -746,65 +746,65 @@
         <v>80</v>
       </c>
       <c r="L5" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Бали</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="O5" t="n">
-        <v>1520.28</v>
+        <v>1421.4</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1765.08</v>
+        <v>1555.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1587.92</v>
+        <v>1306.2</v>
       </c>
       <c r="R5" t="n">
-        <v>709</v>
+        <v>588</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2644</v>
+        <v>2274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2021-12-02</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>401102177</t>
+          <t>403084472</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Белый. 235 см. х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Сиде Серый 160 см х 10 шт.</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>5605</v>
+        <v>3060</v>
       </c>
       <c r="F6" t="n">
-        <v>560</v>
+        <v>306</v>
       </c>
       <c r="G6" t="n">
-        <v>644</v>
+        <v>351</v>
       </c>
       <c r="H6" t="n">
-        <v>224</v>
+        <v>122</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>4177</v>
+        <v>2281</v>
       </c>
       <c r="J6" t="n">
         <v>10</v>
@@ -813,65 +813,65 @@
         <v>80</v>
       </c>
       <c r="L6" t="n">
-        <v>235</v>
+        <v>160</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Лайн</t>
+          <t>Сиде</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>10.7</v>
+        <v>24</v>
       </c>
       <c r="O6" t="n">
-        <v>1504.5725</v>
+        <v>1353.42</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1786.5725</v>
+        <v>1468.62</v>
       </c>
       <c r="Q6" t="n">
-        <v>2390.4275</v>
+        <v>812.3799999999999</v>
       </c>
       <c r="R6" t="n">
-        <v>1021</v>
+        <v>393</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3156</v>
+        <v>1888</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>401526431</t>
+          <t>403084434</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 180 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Рио кремовый 135 см х 10 шт.</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
-        <v>4035</v>
+        <v>2820</v>
       </c>
       <c r="F7" t="n">
-        <v>403</v>
+        <v>282</v>
       </c>
       <c r="G7" t="n">
-        <v>464</v>
+        <v>324</v>
       </c>
       <c r="H7" t="n">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>3007</v>
+        <v>2102</v>
       </c>
       <c r="J7" t="n">
         <v>10</v>
@@ -880,65 +880,65 @@
         <v>80</v>
       </c>
       <c r="L7" t="n">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Рио</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O7" t="n">
-        <v>1328.7</v>
+        <v>1078.41</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1544.7</v>
+        <v>1175.61</v>
       </c>
       <c r="Q7" t="n">
-        <v>1462.3</v>
+        <v>926.3899999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>648</v>
+        <v>421</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2359</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2021-12-17</t>
+          <t>2022-02-23</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>401526169</t>
+          <t>403083907</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 145 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Сиде Серый 280 см х 10 шт.</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E8" t="n">
-        <v>2680</v>
+        <v>5220</v>
       </c>
       <c r="F8" t="n">
-        <v>268</v>
+        <v>522</v>
       </c>
       <c r="G8" t="n">
-        <v>308</v>
+        <v>600</v>
       </c>
       <c r="H8" t="n">
-        <v>107</v>
+        <v>208</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>1997</v>
+        <v>3890</v>
       </c>
       <c r="J8" t="n">
         <v>10</v>
@@ -947,65 +947,65 @@
         <v>80</v>
       </c>
       <c r="L8" t="n">
-        <v>145</v>
+        <v>280</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Сиде</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="O8" t="n">
-        <v>889.9200000000001</v>
+        <v>2243.34</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>1029.12</v>
+        <v>2444.94</v>
       </c>
       <c r="Q8" t="n">
-        <v>967.8799999999999</v>
+        <v>1445.06</v>
       </c>
       <c r="R8" t="n">
-        <v>430</v>
+        <v>690</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1567</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2022-02-15</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>401531456</t>
+          <t>401526697</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Персиковый 140 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 120 см х 10 шт.</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
-        <v>2544</v>
+        <v>2010</v>
       </c>
       <c r="F9" t="n">
-        <v>254</v>
+        <v>201</v>
       </c>
       <c r="G9" t="n">
-        <v>292</v>
+        <v>231</v>
       </c>
       <c r="H9" t="n">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>1897</v>
+        <v>1498</v>
       </c>
       <c r="J9" t="n">
         <v>10</v>
@@ -1014,7 +1014,7 @@
         <v>80</v>
       </c>
       <c r="L9" t="n">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -1025,54 +1025,54 @@
         <v>12</v>
       </c>
       <c r="O9" t="n">
-        <v>865.2</v>
+        <v>574.74</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>999.6</v>
+        <v>661.14</v>
       </c>
       <c r="Q9" t="n">
-        <v>897.4</v>
+        <v>836.86</v>
       </c>
       <c r="R9" t="n">
-        <v>400</v>
+        <v>359</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1497</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2021-12-06</t>
+          <t>2022-02-22</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>401531456</t>
+          <t>401106611</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Персиковый 140 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Лайн Коричневый 235 см х 10 шт.</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1908</v>
+        <v>2178</v>
       </c>
       <c r="F10" t="n">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="G10" t="n">
-        <v>219</v>
+        <v>250</v>
       </c>
       <c r="H10" t="n">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>1423</v>
+        <v>1624</v>
       </c>
       <c r="J10" t="n">
         <v>10</v>
@@ -1081,65 +1081,65 @@
         <v>80</v>
       </c>
       <c r="L10" t="n">
-        <v>140</v>
+        <v>235</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Лайн</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>12</v>
+        <v>10.7</v>
       </c>
       <c r="O10" t="n">
-        <v>648.9</v>
+        <v>601.829</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>749.7</v>
+        <v>714.6289999999999</v>
       </c>
       <c r="Q10" t="n">
-        <v>673.3</v>
+        <v>909.3710000000001</v>
       </c>
       <c r="R10" t="n">
-        <v>300</v>
+        <v>390</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1123</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2021-12-12</t>
+          <t>2022-02-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>401102415</t>
+          <t>403084375</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Коричневый 150 см. х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Бали голубой 170 см х 10 шт.</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" t="n">
-        <v>1908</v>
+        <v>2160</v>
       </c>
       <c r="F11" t="n">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="G11" t="n">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="H11" t="n">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1423</v>
+        <v>1610</v>
       </c>
       <c r="J11" t="n">
         <v>10</v>
@@ -1148,65 +1148,65 @@
         <v>80</v>
       </c>
       <c r="L11" t="n">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Лайн</t>
+          <t>Бали</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>10.7</v>
+        <v>21</v>
       </c>
       <c r="O11" t="n">
-        <v>621.708</v>
+        <v>840.48</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>729.708</v>
+        <v>922.08</v>
       </c>
       <c r="Q11" t="n">
-        <v>693.292</v>
+        <v>687.92</v>
       </c>
       <c r="R11" t="n">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1116</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2022-02-11</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>401531530</t>
+          <t>403084485</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Персиковый 160 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Рио кремовый 140 см х 10 шт.</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1386</v>
+        <v>1880</v>
       </c>
       <c r="F12" t="n">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="G12" t="n">
-        <v>159</v>
+        <v>216</v>
       </c>
       <c r="H12" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1034</v>
+        <v>1401</v>
       </c>
       <c r="J12" t="n">
         <v>10</v>
@@ -1215,65 +1215,65 @@
         <v>80</v>
       </c>
       <c r="L12" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Мальта</t>
+          <t>Рио</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="O12" t="n">
-        <v>482.04</v>
+        <v>741.6</v>
       </c>
       <c r="P12" s="4" t="n">
-        <v>558.84</v>
+        <v>808.8000000000001</v>
       </c>
       <c r="Q12" t="n">
-        <v>475.16</v>
+        <v>592.1999999999999</v>
       </c>
       <c r="R12" t="n">
-        <v>213</v>
+        <v>272</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>821</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2021-12-07</t>
+          <t>2022-02-19</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>401102321</t>
+          <t>401526719</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Терра 145 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 160 см х 10 шт.</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1272</v>
+        <v>730</v>
       </c>
       <c r="F13" t="n">
-        <v>127</v>
+        <v>73</v>
       </c>
       <c r="G13" t="n">
-        <v>146</v>
+        <v>83</v>
       </c>
       <c r="H13" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="I13" s="4" t="n">
-        <v>949</v>
+        <v>545</v>
       </c>
       <c r="J13" t="n">
         <v>10</v>
@@ -1282,65 +1282,65 @@
         <v>80</v>
       </c>
       <c r="L13" t="n">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Лайн</t>
+          <t>Мальта</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>10.7</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
-        <v>403.451</v>
+        <v>241.02</v>
       </c>
       <c r="P13" s="4" t="n">
-        <v>473.051</v>
+        <v>279.42</v>
       </c>
       <c r="Q13" t="n">
-        <v>475.949</v>
+        <v>265.58</v>
       </c>
       <c r="R13" t="n">
-        <v>209</v>
+        <v>118</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>740</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022-01-03</t>
+          <t>2022-02-26</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>403084635</t>
+          <t>403084189</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Бали Синий 170 см х 10 шт.</t>
+          <t>Ламели для вертикальных жалюзи. Ткань Рио кремовый 150 см х 10 шт.</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2160</v>
+        <v>940</v>
       </c>
       <c r="F14" t="n">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="G14" t="n">
-        <v>248</v>
+        <v>108</v>
       </c>
       <c r="H14" t="n">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="I14" s="4" t="n">
-        <v>1610</v>
+        <v>701</v>
       </c>
       <c r="J14" t="n">
         <v>10</v>
@@ -1349,834 +1349,41 @@
         <v>80</v>
       </c>
       <c r="L14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Бали</t>
+          <t>Рио</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="O14" t="n">
-        <v>840.48</v>
+        <v>393.46</v>
       </c>
       <c r="P14" s="4" t="n">
-        <v>922.08</v>
+        <v>429.46</v>
       </c>
       <c r="Q14" t="n">
-        <v>687.92</v>
+        <v>271.54</v>
       </c>
       <c r="R14" t="n">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1295</v>
+        <v>573</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2021-12-12</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>401531521</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Персиковый 150 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2</v>
-      </c>
-      <c r="E15" t="n">
-        <v>1272</v>
-      </c>
-      <c r="F15" t="n">
-        <v>127</v>
-      </c>
-      <c r="G15" t="n">
-        <v>146</v>
-      </c>
-      <c r="H15" t="n">
-        <v>50</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>949</v>
-      </c>
-      <c r="J15" t="n">
-        <v>10</v>
-      </c>
-      <c r="K15" t="n">
-        <v>80</v>
-      </c>
-      <c r="L15" t="n">
-        <v>150</v>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>12</v>
-      </c>
-      <c r="O15" t="n">
-        <v>457.32</v>
-      </c>
-      <c r="P15" s="4" t="n">
-        <v>529.3199999999999</v>
-      </c>
       <c r="Q15" t="n">
-        <v>419.6800000000001</v>
+        <v>12217.061</v>
       </c>
       <c r="R15" t="n">
-        <v>190</v>
+        <v>5642</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2021-12-10</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>401526719</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 160 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1386</v>
-      </c>
-      <c r="F16" t="n">
-        <v>138</v>
-      </c>
-      <c r="G16" t="n">
-        <v>159</v>
-      </c>
-      <c r="H16" t="n">
-        <v>55</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>1034</v>
-      </c>
-      <c r="J16" t="n">
-        <v>10</v>
-      </c>
-      <c r="K16" t="n">
-        <v>80</v>
-      </c>
-      <c r="L16" t="n">
-        <v>160</v>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>12</v>
-      </c>
-      <c r="O16" t="n">
-        <v>482.04</v>
-      </c>
-      <c r="P16" s="4" t="n">
-        <v>558.84</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>475.16</v>
-      </c>
-      <c r="R16" t="n">
-        <v>213</v>
-      </c>
-      <c r="S16" s="5" t="n">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2021-12-09</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>401526169</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 145 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2</v>
-      </c>
-      <c r="E17" t="n">
-        <v>1272</v>
-      </c>
-      <c r="F17" t="n">
-        <v>127</v>
-      </c>
-      <c r="G17" t="n">
-        <v>146</v>
-      </c>
-      <c r="H17" t="n">
-        <v>50</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>949</v>
-      </c>
-      <c r="J17" t="n">
-        <v>10</v>
-      </c>
-      <c r="K17" t="n">
-        <v>80</v>
-      </c>
-      <c r="L17" t="n">
-        <v>145</v>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>12</v>
-      </c>
-      <c r="O17" t="n">
-        <v>444.96</v>
-      </c>
-      <c r="P17" s="4" t="n">
-        <v>514.5600000000001</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>434.4399999999999</v>
-      </c>
-      <c r="R17" t="n">
-        <v>195</v>
-      </c>
-      <c r="S17" s="5" t="n">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2021-12-03</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>401102305</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Светло-бежевый 235 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>2</v>
-      </c>
-      <c r="E18" t="n">
-        <v>2242</v>
-      </c>
-      <c r="F18" t="n">
-        <v>224</v>
-      </c>
-      <c r="G18" t="n">
-        <v>257</v>
-      </c>
-      <c r="H18" t="n">
-        <v>89</v>
-      </c>
-      <c r="I18" s="4" t="n">
-        <v>1672</v>
-      </c>
-      <c r="J18" t="n">
-        <v>10</v>
-      </c>
-      <c r="K18" t="n">
-        <v>80</v>
-      </c>
-      <c r="L18" t="n">
-        <v>235</v>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>Лайн</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="O18" t="n">
-        <v>601.829</v>
-      </c>
-      <c r="P18" s="4" t="n">
-        <v>714.6289999999999</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>957.3710000000001</v>
-      </c>
-      <c r="R18" t="n">
-        <v>408</v>
-      </c>
-      <c r="S18" s="5" t="n">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2021-12-16</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>401526719</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 160 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1</v>
-      </c>
-      <c r="E19" t="n">
-        <v>730</v>
-      </c>
-      <c r="F19" t="n">
-        <v>73</v>
-      </c>
-      <c r="G19" t="n">
-        <v>83</v>
-      </c>
-      <c r="H19" t="n">
-        <v>29</v>
-      </c>
-      <c r="I19" s="4" t="n">
-        <v>545</v>
-      </c>
-      <c r="J19" t="n">
-        <v>10</v>
-      </c>
-      <c r="K19" t="n">
-        <v>80</v>
-      </c>
-      <c r="L19" t="n">
-        <v>160</v>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>12</v>
-      </c>
-      <c r="O19" t="n">
-        <v>241.02</v>
-      </c>
-      <c r="P19" s="4" t="n">
-        <v>279.42</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>265.58</v>
-      </c>
-      <c r="R19" t="n">
-        <v>118</v>
-      </c>
-      <c r="S19" s="5" t="n">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2021-12-11</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>401102300</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Лайн Светло-бежевый 190 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1</v>
-      </c>
-      <c r="E20" t="n">
-        <v>864</v>
-      </c>
-      <c r="F20" t="n">
-        <v>86</v>
-      </c>
-      <c r="G20" t="n">
-        <v>99</v>
-      </c>
-      <c r="H20" t="n">
-        <v>34</v>
-      </c>
-      <c r="I20" s="4" t="n">
-        <v>645</v>
-      </c>
-      <c r="J20" t="n">
-        <v>10</v>
-      </c>
-      <c r="K20" t="n">
-        <v>80</v>
-      </c>
-      <c r="L20" t="n">
-        <v>190</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>Лайн</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="O20" t="n">
-        <v>251.32</v>
-      </c>
-      <c r="P20" s="4" t="n">
-        <v>296.92</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>348.08</v>
-      </c>
-      <c r="R20" t="n">
-        <v>150</v>
-      </c>
-      <c r="S20" s="5" t="n">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2021-12-12</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>401526719</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 160 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1</v>
-      </c>
-      <c r="E21" t="n">
-        <v>693</v>
-      </c>
-      <c r="F21" t="n">
-        <v>69</v>
-      </c>
-      <c r="G21" t="n">
-        <v>79</v>
-      </c>
-      <c r="H21" t="n">
-        <v>27</v>
-      </c>
-      <c r="I21" s="4" t="n">
-        <v>518</v>
-      </c>
-      <c r="J21" t="n">
-        <v>10</v>
-      </c>
-      <c r="K21" t="n">
-        <v>80</v>
-      </c>
-      <c r="L21" t="n">
-        <v>160</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>12</v>
-      </c>
-      <c r="O21" t="n">
-        <v>241.02</v>
-      </c>
-      <c r="P21" s="4" t="n">
-        <v>279.42</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>238.58</v>
-      </c>
-      <c r="R21" t="n">
-        <v>107</v>
-      </c>
-      <c r="S21" s="5" t="n">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2022-01-08</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>401526169</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 145 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1</v>
-      </c>
-      <c r="E22" t="n">
-        <v>670</v>
-      </c>
-      <c r="F22" t="n">
-        <v>67</v>
-      </c>
-      <c r="G22" t="n">
-        <v>77</v>
-      </c>
-      <c r="H22" t="n">
-        <v>26</v>
-      </c>
-      <c r="I22" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="J22" t="n">
-        <v>10</v>
-      </c>
-      <c r="K22" t="n">
-        <v>80</v>
-      </c>
-      <c r="L22" t="n">
-        <v>145</v>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>12</v>
-      </c>
-      <c r="O22" t="n">
-        <v>222.48</v>
-      </c>
-      <c r="P22" s="4" t="n">
-        <v>257.28</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>242.72</v>
-      </c>
-      <c r="R22" t="n">
-        <v>107</v>
-      </c>
-      <c r="S22" s="5" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2021-12-07</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>403084696</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Сиде Серый 220 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>1311</v>
-      </c>
-      <c r="F23" t="n">
-        <v>131</v>
-      </c>
-      <c r="G23" t="n">
-        <v>150</v>
-      </c>
-      <c r="H23" t="n">
-        <v>52</v>
-      </c>
-      <c r="I23" s="4" t="n">
-        <v>978</v>
-      </c>
-      <c r="J23" t="n">
-        <v>10</v>
-      </c>
-      <c r="K23" t="n">
-        <v>80</v>
-      </c>
-      <c r="L23" t="n">
-        <v>220</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Сиде</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>24</v>
-      </c>
-      <c r="O23" t="n">
-        <v>599.46</v>
-      </c>
-      <c r="P23" s="4" t="n">
-        <v>652.26</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>325.74</v>
-      </c>
-      <c r="R23" t="n">
-        <v>161</v>
-      </c>
-      <c r="S23" s="5" t="n">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2021-12-18</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>401526431</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 180 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>850</v>
-      </c>
-      <c r="F24" t="n">
-        <v>85</v>
-      </c>
-      <c r="G24" t="n">
-        <v>97</v>
-      </c>
-      <c r="H24" t="n">
-        <v>34</v>
-      </c>
-      <c r="I24" s="4" t="n">
-        <v>634</v>
-      </c>
-      <c r="J24" t="n">
-        <v>10</v>
-      </c>
-      <c r="K24" t="n">
-        <v>80</v>
-      </c>
-      <c r="L24" t="n">
-        <v>180</v>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>12</v>
-      </c>
-      <c r="O24" t="n">
-        <v>265.74</v>
-      </c>
-      <c r="P24" s="4" t="n">
-        <v>308.94</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>325.06</v>
-      </c>
-      <c r="R24" t="n">
-        <v>142</v>
-      </c>
-      <c r="S24" s="5" t="n">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2021-12-15</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>401526169</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Мальта Белый 145 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1</v>
-      </c>
-      <c r="E25" t="n">
-        <v>670</v>
-      </c>
-      <c r="F25" t="n">
-        <v>67</v>
-      </c>
-      <c r="G25" t="n">
-        <v>77</v>
-      </c>
-      <c r="H25" t="n">
-        <v>26</v>
-      </c>
-      <c r="I25" s="4" t="n">
-        <v>500</v>
-      </c>
-      <c r="J25" t="n">
-        <v>10</v>
-      </c>
-      <c r="K25" t="n">
-        <v>80</v>
-      </c>
-      <c r="L25" t="n">
-        <v>145</v>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>Мальта</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>12</v>
-      </c>
-      <c r="O25" t="n">
-        <v>222.48</v>
-      </c>
-      <c r="P25" s="4" t="n">
-        <v>257.28</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>242.72</v>
-      </c>
-      <c r="R25" t="n">
-        <v>107</v>
-      </c>
-      <c r="S25" s="5" t="n">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2021-12-16</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>403084286</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Ламели для вертикальных жалюзи. Ткань Рио кремовый 160 см х 10 шт.</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="F26" t="n">
-        <v>100</v>
-      </c>
-      <c r="G26" t="n">
-        <v>115</v>
-      </c>
-      <c r="H26" t="n">
-        <v>40</v>
-      </c>
-      <c r="I26" s="4" t="n">
-        <v>745</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10</v>
-      </c>
-      <c r="K26" t="n">
-        <v>80</v>
-      </c>
-      <c r="L26" t="n">
-        <v>160</v>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>Рио</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>22</v>
-      </c>
-      <c r="O26" t="n">
-        <v>416.12</v>
-      </c>
-      <c r="P26" s="4" t="n">
-        <v>454.52</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>290.48</v>
-      </c>
-      <c r="R26" t="n">
-        <v>137</v>
-      </c>
-      <c r="S26" s="5" t="n">
-        <v>608</v>
+        <v>23691</v>
       </c>
     </row>
   </sheetData>
